--- a/public/imports/product.xlsx
+++ b/public/imports/product.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
   <si>
     <t>title</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>لباس زنانه رنگ زرد تیرهززززذذذذذ</t>
+  </si>
+  <si>
+    <t>لباس جنس کتان</t>
+  </si>
+  <si>
+    <t>لباس ابریشمی</t>
+  </si>
+  <si>
+    <t>لباس سره همی کتان</t>
   </si>
 </sst>
 </file>
@@ -478,7 +487,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -486,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -819,6 +828,237 @@
         <v>230</v>
       </c>
     </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2230000</v>
+      </c>
+      <c r="G5">
+        <v>220000</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5">
+        <v>220</v>
+      </c>
+      <c r="Q5">
+        <v>1242</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>3113112</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>8</v>
+      </c>
+      <c r="Y5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2230000</v>
+      </c>
+      <c r="G6">
+        <v>220000</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6">
+        <v>220</v>
+      </c>
+      <c r="Q6">
+        <v>1242</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>3113112</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <v>8</v>
+      </c>
+      <c r="Y6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2230000</v>
+      </c>
+      <c r="G7">
+        <v>220000</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7">
+        <v>220</v>
+      </c>
+      <c r="Q7">
+        <v>1242</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>3113112</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7">
+        <v>8</v>
+      </c>
+      <c r="Y7">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
